--- a/LibraryWebAPI/Template/Excel/書籍列表匯出範本.xlsx
+++ b/LibraryWebAPI/Template/Excel/書籍列表匯出範本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Library\LibraryWebAPI\Template\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE436381-2152-4D68-B5D9-BE8896EC2814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9599277C-B2E8-4BB4-9F67-ABDA67DCA5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>書名</t>
-  </si>
-  <si>
-    <t>狀態</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>庫存數量</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ISBN</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -46,26 +35,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>GPN</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版單位</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版情況</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者資訊</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版日期</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>版次</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -78,10 +47,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>出版品分類</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>主題分類</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -94,10 +59,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>頁數</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>開數</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -106,47 +67,276 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>語言</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>書籍介紹</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>資料類型</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>字號</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>權利範圍</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>停刊註記</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>狀態
+(0有庫存1無庫存)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>庫存數量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GPN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>出版單位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>出版情況</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>作者資訊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>出版日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>出版品分類</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>頁數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>語言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>價格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>附件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>書名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>目次</t>
-  </si>
-  <si>
-    <t>價格</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>適用對象</t>
-  </si>
-  <si>
-    <t>資料類型</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>出版品網址-線上版或試閱版</t>
-  </si>
-  <si>
-    <t>播放時間長度</t>
-  </si>
-  <si>
-    <t>字號</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>權利範圍</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>停刊註記</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>播放時間長度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>授權資訊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,16 +359,36 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -186,14 +396,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,110 +707,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="10" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="W1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
